--- a/c#/GenerateScript/GenerateScript/bin/Debug/test.xlsx
+++ b/c#/GenerateScript/GenerateScript/bin/Debug/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>ColumnName</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>ZZZZZZZZZZZZ</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,6 +742,9 @@
       <c r="E4" t="s">
         <v>38</v>
       </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
       <c r="J4" t="s">
         <v>39</v>
       </c>
@@ -788,6 +794,9 @@
       </c>
       <c r="E5" t="s">
         <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
